--- a/excels/check/1_100.xlsx
+++ b/excels/check/1_100.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="20400" windowHeight="8265" activeTab="5"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="15675" windowHeight="12075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="length change1" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,34 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -810,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:P1048576"/>
+    <sheetView topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:XFD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4922,6 +4949,68 @@
         <v>45238</v>
       </c>
     </row>
+    <row r="84" spans="1:16">
+      <c r="B84">
+        <f>AVERAGE(B2:B82)</f>
+        <v>38586.456790123455</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ref="C84:P84" si="0">AVERAGE(C2:C82)</f>
+        <v>39719.851851851854</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="0"/>
+        <v>38704.1975308642</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="0"/>
+        <v>40886.469135802472</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="0"/>
+        <v>34865.8024691358</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="0"/>
+        <v>45601.8024691358</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="0"/>
+        <v>45381.419753086418</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="0"/>
+        <v>44865.074074074073</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="0"/>
+        <v>44655.876543209873</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="0"/>
+        <v>45773.172839506173</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="0"/>
+        <v>34224.543209876545</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="0"/>
+        <v>38166.555555555555</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="0"/>
+        <v>36034.814814814818</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="0"/>
+        <v>32555.518518518518</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="0"/>
+        <v>33798.814814814818</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4929,10 +5018,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:P1048576"/>
+    <sheetView topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D84" sqref="A84:XFD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9041,6 +9130,68 @@
         <v>47053</v>
       </c>
     </row>
+    <row r="84" spans="1:16">
+      <c r="B84">
+        <f>AVERAGE(B2:B82)</f>
+        <v>41267.925925925927</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ref="C84:P84" si="0">AVERAGE(C2:C82)</f>
+        <v>42440.765432098764</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="0"/>
+        <v>43289.888888888891</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="0"/>
+        <v>42978.444444444445</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="0"/>
+        <v>41367.98765432099</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="0"/>
+        <v>44800.049382716046</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="0"/>
+        <v>44499.753086419754</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="0"/>
+        <v>44613.888888888891</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="0"/>
+        <v>43828</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="0"/>
+        <v>44791.1975308642</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="0"/>
+        <v>36565.654320987655</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="0"/>
+        <v>35256.419753086418</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="0"/>
+        <v>35388.123456790127</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="0"/>
+        <v>31684.0987654321</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="0"/>
+        <v>33799.296296296299</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9048,10 +9199,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13160,6 +13311,68 @@
         <v>48176</v>
       </c>
     </row>
+    <row r="84" spans="1:16">
+      <c r="B84">
+        <f>AVERAGE(B2:B82)</f>
+        <v>32177.827160493827</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ref="C84:P84" si="0">AVERAGE(C2:C82)</f>
+        <v>31422.777777777777</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="0"/>
+        <v>30896.283950617282</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="0"/>
+        <v>31593.012345679013</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="0"/>
+        <v>29053.234567901236</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="0"/>
+        <v>37614.555555555555</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="0"/>
+        <v>36052.061728395063</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="0"/>
+        <v>35423.617283950618</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="0"/>
+        <v>36494.666666666664</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="0"/>
+        <v>34636.135802469136</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="0"/>
+        <v>31977.222222222223</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="0"/>
+        <v>33836.8024691358</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="0"/>
+        <v>32021.259259259259</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="0"/>
+        <v>31144.666666666668</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="0"/>
+        <v>32948.037037037036</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13169,8 +13382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:P1048576"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -17280,6 +17493,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:P1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17289,7 +17507,7 @@
   <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:P1048576"/>
+      <selection activeCell="G17" sqref="A1:P82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -21399,6 +21617,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:P82">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21407,8 +21630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:P1048576"/>
+    <sheetView topLeftCell="A31" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75:P77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -25518,6 +25741,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:P1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>